--- a/PYTHON/100 colombianos dicen/preguntas.xlsx
+++ b/PYTHON/100 colombianos dicen/preguntas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swild\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github-docente\DOCENTE\PYTHON\100 colombianos dicen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79913B70-AA21-4EC5-AEC7-181D95B15F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433EA587-0662-4D62-89D1-0EDABDD65894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3D88D7F3-47AF-477A-B556-7645C693833F}"/>
   </bookViews>
@@ -738,7 +738,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -820,7 +820,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1160,15 +1160,15 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="42.75">
+    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="28.5">
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>108</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>122</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>116</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="42.75">
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>117</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="57">
+    <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="28.5">
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="28.5">
+    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="28.5">
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="28.5">
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="28.5">
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>58</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="28.5">
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>63</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>68</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>73</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="28.5">
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>77</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>82</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="28.5">
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>84</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="42.75">
+    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>89</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="42.75">
+    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>94</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="28.5">
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>98</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="28.5">
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>103</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>124</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>129</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>139</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>143</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>148</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>152</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>157</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>161</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>165</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>169</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>174</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>179</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>183</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>188</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>193</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>197</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>201</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>205</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>210</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>215</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>220</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>224</v>
       </c>
